--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/L1cam-Erbb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/L1cam-Erbb3.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.467421333333334</v>
+        <v>6.713252999999999</v>
       </c>
       <c r="H2">
-        <v>25.402264</v>
+        <v>20.139759</v>
       </c>
       <c r="I2">
-        <v>0.2732469334691615</v>
+        <v>0.3101840064655811</v>
       </c>
       <c r="J2">
-        <v>0.312800300005396</v>
+        <v>0.3231642354899327</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1640393333333333</v>
+        <v>0.07487166666666667</v>
       </c>
       <c r="N2">
-        <v>0.492118</v>
+        <v>0.224615</v>
       </c>
       <c r="O2">
-        <v>0.02017083634918183</v>
+        <v>0.01287435003490057</v>
       </c>
       <c r="P2">
-        <v>0.02777954494355415</v>
+        <v>0.01655871537719798</v>
       </c>
       <c r="Q2">
-        <v>1.388990150572445</v>
+        <v>0.5026324408649999</v>
       </c>
       <c r="R2">
-        <v>12.500911355152</v>
+        <v>4.523691967785</v>
       </c>
       <c r="S2">
-        <v>0.005511619177922232</v>
+        <v>0.003993417474465753</v>
       </c>
       <c r="T2">
-        <v>0.00868944999235712</v>
+        <v>0.005351184595567576</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.467421333333334</v>
+        <v>6.713252999999999</v>
       </c>
       <c r="H3">
-        <v>25.402264</v>
+        <v>20.139759</v>
       </c>
       <c r="I3">
-        <v>0.2732469334691615</v>
+        <v>0.3101840064655811</v>
       </c>
       <c r="J3">
-        <v>0.312800300005396</v>
+        <v>0.3231642354899327</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,22 +626,22 @@
         <v>0.45377</v>
       </c>
       <c r="O3">
-        <v>0.01859903602422231</v>
+        <v>0.02600892111095355</v>
       </c>
       <c r="P3">
-        <v>0.02561484056473563</v>
+        <v>0.03345212152666174</v>
       </c>
       <c r="Q3">
-        <v>1.280753926142222</v>
+        <v>1.01542427127</v>
       </c>
       <c r="R3">
-        <v>11.52678533528</v>
+        <v>9.138818441429999</v>
       </c>
       <c r="S3">
-        <v>0.005082129559101213</v>
+        <v>0.008067551354042806</v>
       </c>
       <c r="T3">
-        <v>0.008012329813239691</v>
+        <v>0.01081052927867996</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.467421333333334</v>
+        <v>6.713252999999999</v>
       </c>
       <c r="H4">
-        <v>25.402264</v>
+        <v>20.139759</v>
       </c>
       <c r="I4">
-        <v>0.2732469334691615</v>
+        <v>0.3101840064655811</v>
       </c>
       <c r="J4">
-        <v>0.312800300005396</v>
+        <v>0.3231642354899327</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.524817</v>
+        <v>0.8000470000000001</v>
       </c>
       <c r="N4">
-        <v>1.574451</v>
+        <v>2.400141</v>
       </c>
       <c r="O4">
-        <v>0.06453328970044923</v>
+        <v>0.1375698656239178</v>
       </c>
       <c r="P4">
-        <v>0.0888761075919267</v>
+        <v>0.1769394371887155</v>
       </c>
       <c r="Q4">
-        <v>4.443846661896</v>
+        <v>5.370917922891</v>
       </c>
       <c r="R4">
-        <v>39.994619957064</v>
+        <v>48.338261306019</v>
       </c>
       <c r="S4">
-        <v>0.01763352351732478</v>
+        <v>0.04267197208815843</v>
       </c>
       <c r="T4">
-        <v>0.02780047311806652</v>
+        <v>0.05718049794711019</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.467421333333334</v>
+        <v>6.713252999999999</v>
       </c>
       <c r="H5">
-        <v>25.402264</v>
+        <v>20.139759</v>
       </c>
       <c r="I5">
-        <v>0.2732469334691615</v>
+        <v>0.3101840064655811</v>
       </c>
       <c r="J5">
-        <v>0.312800300005396</v>
+        <v>0.3231642354899327</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.68238</v>
+        <v>3.881946</v>
       </c>
       <c r="N5">
-        <v>13.36476</v>
+        <v>7.763892</v>
       </c>
       <c r="O5">
-        <v>0.8216882540552003</v>
+        <v>0.6675092708044715</v>
       </c>
       <c r="P5">
-        <v>0.7544266844127117</v>
+        <v>0.5723574910282232</v>
       </c>
       <c r="Q5">
-        <v>56.58252696944001</v>
+        <v>26.060485630338</v>
       </c>
       <c r="R5">
-        <v>339.4951618166401</v>
+        <v>156.362913782028</v>
       </c>
       <c r="S5">
-        <v>0.2245237956882128</v>
+        <v>0.2070506999710496</v>
       </c>
       <c r="T5">
-        <v>0.2359848932163724</v>
+        <v>0.1849654710150717</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.467421333333334</v>
+        <v>6.713252999999999</v>
       </c>
       <c r="H6">
-        <v>25.402264</v>
+        <v>20.139759</v>
       </c>
       <c r="I6">
-        <v>0.2732469334691615</v>
+        <v>0.3101840064655811</v>
       </c>
       <c r="J6">
-        <v>0.312800300005396</v>
+        <v>0.3231642354899327</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6100073333333333</v>
+        <v>0.9074473333333333</v>
       </c>
       <c r="N6">
-        <v>1.830022</v>
+        <v>2.722342</v>
       </c>
       <c r="O6">
-        <v>0.07500858387094646</v>
+        <v>0.1560375924257564</v>
       </c>
       <c r="P6">
-        <v>0.1033028224870719</v>
+        <v>0.2006922348792017</v>
       </c>
       <c r="Q6">
-        <v>5.165189107756445</v>
+        <v>6.091923532841999</v>
       </c>
       <c r="R6">
-        <v>46.486701969808</v>
+        <v>54.82731179557799</v>
       </c>
       <c r="S6">
-        <v>0.02049586552660053</v>
+        <v>0.04840036557786455</v>
       </c>
       <c r="T6">
-        <v>0.03231315386536027</v>
+        <v>0.06485655265350321</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>1.003042</v>
       </c>
       <c r="I7">
-        <v>0.01078951666043525</v>
+        <v>0.0154484264788496</v>
       </c>
       <c r="J7">
-        <v>0.01235133366529898</v>
+        <v>0.01609489473505086</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.1640393333333333</v>
+        <v>0.07487166666666667</v>
       </c>
       <c r="N7">
-        <v>0.492118</v>
+        <v>0.224615</v>
       </c>
       <c r="O7">
-        <v>0.02017083634918183</v>
+        <v>0.01287435003490057</v>
       </c>
       <c r="P7">
-        <v>0.02777954494355415</v>
+        <v>0.01655871537719798</v>
       </c>
       <c r="Q7">
-        <v>0.05484611366177778</v>
+        <v>0.02503314209222222</v>
       </c>
       <c r="R7">
-        <v>0.493615022956</v>
+        <v>0.22529827883</v>
       </c>
       <c r="S7">
-        <v>0.0002176335748444104</v>
+        <v>0.0001988884499771362</v>
       </c>
       <c r="T7">
-        <v>0.0003431144286680065</v>
+        <v>0.0002665107809436693</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>1.003042</v>
       </c>
       <c r="I8">
-        <v>0.01078951666043525</v>
+        <v>0.0154484264788496</v>
       </c>
       <c r="J8">
-        <v>0.01235133366529898</v>
+        <v>0.01609489473505086</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -936,22 +936,22 @@
         <v>0.45377</v>
       </c>
       <c r="O8">
-        <v>0.01859903602422231</v>
+        <v>0.02600892111095355</v>
       </c>
       <c r="P8">
-        <v>0.02561484056473563</v>
+        <v>0.03345212152666174</v>
       </c>
       <c r="Q8">
-        <v>0.05057226314888888</v>
+        <v>0.05057226314888889</v>
       </c>
       <c r="R8">
-        <v>0.4551503683399999</v>
+        <v>0.45515036834</v>
       </c>
       <c r="S8">
-        <v>0.0002006746090513821</v>
+        <v>0.0004017969055767651</v>
       </c>
       <c r="T8">
-        <v>0.0003163774425984851</v>
+        <v>0.0005384083746357494</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>1.003042</v>
       </c>
       <c r="I9">
-        <v>0.01078951666043525</v>
+        <v>0.0154484264788496</v>
       </c>
       <c r="J9">
-        <v>0.01235133366529898</v>
+        <v>0.01609489473505086</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.524817</v>
+        <v>0.8000470000000001</v>
       </c>
       <c r="N9">
-        <v>1.574451</v>
+        <v>2.400141</v>
       </c>
       <c r="O9">
-        <v>0.06453328970044923</v>
+        <v>0.1375698656239178</v>
       </c>
       <c r="P9">
-        <v>0.0888761075919267</v>
+        <v>0.1769394371887155</v>
       </c>
       <c r="Q9">
-        <v>0.175471164438</v>
+        <v>0.2674935809913334</v>
       </c>
       <c r="R9">
-        <v>1.579240479942</v>
+        <v>2.407442228922</v>
       </c>
       <c r="S9">
-        <v>0.0006962830043756918</v>
+        <v>0.002125237954796312</v>
       </c>
       <c r="T9">
-        <v>0.001097738459740899</v>
+        <v>0.002847821616031518</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>1.003042</v>
       </c>
       <c r="I10">
-        <v>0.01078951666043525</v>
+        <v>0.0154484264788496</v>
       </c>
       <c r="J10">
-        <v>0.01235133366529898</v>
+        <v>0.01609489473505086</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.68238</v>
+        <v>3.881946</v>
       </c>
       <c r="N10">
-        <v>13.36476</v>
+        <v>7.763892</v>
       </c>
       <c r="O10">
-        <v>0.8216882540552003</v>
+        <v>0.6675092708044715</v>
       </c>
       <c r="P10">
-        <v>0.7544266844127117</v>
+        <v>0.5723574910282232</v>
       </c>
       <c r="Q10">
-        <v>2.23423593332</v>
+        <v>1.297918293244</v>
       </c>
       <c r="R10">
-        <v>13.40541559992</v>
+        <v>7.787509759464</v>
       </c>
       <c r="S10">
-        <v>0.00886561910681254</v>
+        <v>0.01031196789397338</v>
       </c>
       <c r="T10">
-        <v>0.009318175705186615</v>
+        <v>0.009212033568917068</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>1.003042</v>
       </c>
       <c r="I11">
-        <v>0.01078951666043525</v>
+        <v>0.0154484264788496</v>
       </c>
       <c r="J11">
-        <v>0.01235133366529898</v>
+        <v>0.01609489473505086</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.6100073333333333</v>
+        <v>0.9074473333333333</v>
       </c>
       <c r="N11">
-        <v>1.830022</v>
+        <v>2.722342</v>
       </c>
       <c r="O11">
-        <v>0.07500858387094646</v>
+        <v>0.1560375924257564</v>
       </c>
       <c r="P11">
-        <v>0.1033028224870719</v>
+        <v>0.2006922348792017</v>
       </c>
       <c r="Q11">
-        <v>0.2039543252137778</v>
+        <v>0.3034025960404444</v>
       </c>
       <c r="R11">
-        <v>1.835588926924</v>
+        <v>2.730623364364</v>
       </c>
       <c r="S11">
-        <v>0.0008093063653512319</v>
+        <v>0.002410535274525997</v>
       </c>
       <c r="T11">
-        <v>0.001275927629104976</v>
+        <v>0.003230120394522853</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.140032333333333</v>
+        <v>6.661784666666667</v>
       </c>
       <c r="H12">
-        <v>12.420097</v>
+        <v>19.985354</v>
       </c>
       <c r="I12">
-        <v>0.1336004309946362</v>
+        <v>0.3078059262949933</v>
       </c>
       <c r="J12">
-        <v>0.1529395201819853</v>
+        <v>0.3206866401135023</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.1640393333333333</v>
+        <v>0.07487166666666667</v>
       </c>
       <c r="N12">
-        <v>0.492118</v>
+        <v>0.224615</v>
       </c>
       <c r="O12">
-        <v>0.02017083634918183</v>
+        <v>0.01287435003490057</v>
       </c>
       <c r="P12">
-        <v>0.02777954494355415</v>
+        <v>0.01655871537719798</v>
       </c>
       <c r="Q12">
-        <v>0.6791281439384445</v>
+        <v>0.4987789209677778</v>
       </c>
       <c r="R12">
-        <v>6.112153295446</v>
+        <v>4.48901028871</v>
       </c>
       <c r="S12">
-        <v>0.002694832429772967</v>
+        <v>0.003962801237938549</v>
       </c>
       <c r="T12">
-        <v>0.004248590274541068</v>
+        <v>0.005310158798909404</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.140032333333333</v>
+        <v>6.661784666666667</v>
       </c>
       <c r="H13">
-        <v>12.420097</v>
+        <v>19.985354</v>
       </c>
       <c r="I13">
-        <v>0.1336004309946362</v>
+        <v>0.3078059262949933</v>
       </c>
       <c r="J13">
-        <v>0.1529395201819853</v>
+        <v>0.3206866401135023</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1246,22 +1246,22 @@
         <v>0.45377</v>
       </c>
       <c r="O13">
-        <v>0.01859903602422231</v>
+        <v>0.02600892111095355</v>
       </c>
       <c r="P13">
-        <v>0.02561484056473563</v>
+        <v>0.03345212152666174</v>
       </c>
       <c r="Q13">
-        <v>0.6262074906322221</v>
+        <v>1.007639342731111</v>
       </c>
       <c r="R13">
-        <v>5.635867415689999</v>
+        <v>9.06875408458</v>
       </c>
       <c r="S13">
-        <v>0.002484839228920867</v>
+        <v>0.008005700054490463</v>
       </c>
       <c r="T13">
-        <v>0.00391752142550872</v>
+        <v>0.01072764845705372</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.140032333333333</v>
+        <v>6.661784666666667</v>
       </c>
       <c r="H14">
-        <v>12.420097</v>
+        <v>19.985354</v>
       </c>
       <c r="I14">
-        <v>0.1336004309946362</v>
+        <v>0.3078059262949933</v>
       </c>
       <c r="J14">
-        <v>0.1529395201819853</v>
+        <v>0.3206866401135023</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.524817</v>
+        <v>0.8000470000000001</v>
       </c>
       <c r="N14">
-        <v>1.574451</v>
+        <v>2.400141</v>
       </c>
       <c r="O14">
-        <v>0.06453328970044923</v>
+        <v>0.1375698656239178</v>
       </c>
       <c r="P14">
-        <v>0.0888761075919267</v>
+        <v>0.1769394371887155</v>
       </c>
       <c r="Q14">
-        <v>2.172759349083</v>
+        <v>5.329740837212667</v>
       </c>
       <c r="R14">
-        <v>19.554834141747</v>
+        <v>47.96766753491401</v>
       </c>
       <c r="S14">
-        <v>0.008621675317481736</v>
+        <v>0.04234481991864777</v>
       </c>
       <c r="T14">
-        <v>0.01359266925075177</v>
+        <v>0.05674211361562324</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.140032333333333</v>
+        <v>6.661784666666667</v>
       </c>
       <c r="H15">
-        <v>12.420097</v>
+        <v>19.985354</v>
       </c>
       <c r="I15">
-        <v>0.1336004309946362</v>
+        <v>0.3078059262949933</v>
       </c>
       <c r="J15">
-        <v>0.1529395201819853</v>
+        <v>0.3206866401135023</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.68238</v>
+        <v>3.881946</v>
       </c>
       <c r="N15">
-        <v>13.36476</v>
+        <v>7.763892</v>
       </c>
       <c r="O15">
-        <v>0.8216882540552003</v>
+        <v>0.6675092708044715</v>
       </c>
       <c r="P15">
-        <v>0.7544266844127117</v>
+        <v>0.5723574910282232</v>
       </c>
       <c r="Q15">
-        <v>27.66526926362</v>
+        <v>25.860688339628</v>
       </c>
       <c r="R15">
-        <v>165.99161558172</v>
+        <v>155.164130037768</v>
       </c>
       <c r="S15">
-        <v>0.1097779048850049</v>
+        <v>0.2054633094104659</v>
       </c>
       <c r="T15">
-        <v>0.1153816551265662</v>
+        <v>0.1835474007416349</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.140032333333333</v>
+        <v>6.661784666666667</v>
       </c>
       <c r="H16">
-        <v>12.420097</v>
+        <v>19.985354</v>
       </c>
       <c r="I16">
-        <v>0.1336004309946362</v>
+        <v>0.3078059262949933</v>
       </c>
       <c r="J16">
-        <v>0.1529395201819853</v>
+        <v>0.3206866401135023</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.6100073333333333</v>
+        <v>0.9074473333333333</v>
       </c>
       <c r="N16">
-        <v>1.830022</v>
+        <v>2.722342</v>
       </c>
       <c r="O16">
-        <v>0.07500858387094646</v>
+        <v>0.1560375924257564</v>
       </c>
       <c r="P16">
-        <v>0.1033028224870719</v>
+        <v>0.2006922348792017</v>
       </c>
       <c r="Q16">
-        <v>2.525450083570445</v>
+        <v>6.045218731007555</v>
       </c>
       <c r="R16">
-        <v>22.729050752134</v>
+        <v>54.406968579068</v>
       </c>
       <c r="S16">
-        <v>0.01002117913345577</v>
+        <v>0.04802929567345059</v>
       </c>
       <c r="T16">
-        <v>0.01579908410461758</v>
+        <v>0.06435931850028102</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>11.755292</v>
+        <v>2.607918</v>
       </c>
       <c r="H17">
-        <v>23.510584</v>
+        <v>5.215835999999999</v>
       </c>
       <c r="I17">
-        <v>0.3793477806979605</v>
+        <v>0.1204981331366039</v>
       </c>
       <c r="J17">
-        <v>0.2895063892140504</v>
+        <v>0.08369373503331734</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.1640393333333333</v>
+        <v>0.07487166666666667</v>
       </c>
       <c r="N17">
-        <v>0.492118</v>
+        <v>0.224615</v>
       </c>
       <c r="O17">
-        <v>0.02017083634918183</v>
+        <v>0.01287435003490057</v>
       </c>
       <c r="P17">
-        <v>0.02777954494355415</v>
+        <v>0.01655871537719798</v>
       </c>
       <c r="Q17">
-        <v>1.928330262818667</v>
+        <v>0.19525916719</v>
       </c>
       <c r="R17">
-        <v>11.569981576912</v>
+        <v>1.17155500314</v>
       </c>
       <c r="S17">
-        <v>0.007651762003883881</v>
+        <v>0.00155133514455269</v>
       </c>
       <c r="T17">
-        <v>0.008042355750617795</v>
+        <v>0.001385860737271325</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>11.755292</v>
+        <v>2.607918</v>
       </c>
       <c r="H18">
-        <v>23.510584</v>
+        <v>5.215835999999999</v>
       </c>
       <c r="I18">
-        <v>0.3793477806979605</v>
+        <v>0.1204981331366039</v>
       </c>
       <c r="J18">
-        <v>0.2895063892140504</v>
+        <v>0.08369373503331734</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1556,22 +1556,22 @@
         <v>0.45377</v>
       </c>
       <c r="O18">
-        <v>0.01859903602422231</v>
+        <v>0.02600892111095355</v>
       </c>
       <c r="P18">
-        <v>0.02561484056473563</v>
+        <v>0.03345212152666174</v>
       </c>
       <c r="Q18">
-        <v>1.778066283613333</v>
+        <v>0.39446498362</v>
       </c>
       <c r="R18">
-        <v>10.66839770168</v>
+        <v>2.36678990172</v>
       </c>
       <c r="S18">
-        <v>0.007055503038910155</v>
+        <v>0.003134026438767108</v>
       </c>
       <c r="T18">
-        <v>0.0074156600021902</v>
+        <v>0.002799732995354758</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>11.755292</v>
+        <v>2.607918</v>
       </c>
       <c r="H19">
-        <v>23.510584</v>
+        <v>5.215835999999999</v>
       </c>
       <c r="I19">
-        <v>0.3793477806979605</v>
+        <v>0.1204981331366039</v>
       </c>
       <c r="J19">
-        <v>0.2895063892140504</v>
+        <v>0.08369373503331734</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.524817</v>
+        <v>0.8000470000000001</v>
       </c>
       <c r="N19">
-        <v>1.574451</v>
+        <v>2.400141</v>
       </c>
       <c r="O19">
-        <v>0.06453328970044923</v>
+        <v>0.1375698656239178</v>
       </c>
       <c r="P19">
-        <v>0.0888761075919267</v>
+        <v>0.1769394371887155</v>
       </c>
       <c r="Q19">
-        <v>6.169377081563999</v>
+        <v>2.086456972146</v>
       </c>
       <c r="R19">
-        <v>37.016262489384</v>
+        <v>12.518741832876</v>
       </c>
       <c r="S19">
-        <v>0.02448056022900397</v>
+        <v>0.01657691198353555</v>
       </c>
       <c r="T19">
-        <v>0.02573020099633815</v>
+        <v>0.01480872237301665</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>11.755292</v>
+        <v>2.607918</v>
       </c>
       <c r="H20">
-        <v>23.510584</v>
+        <v>5.215835999999999</v>
       </c>
       <c r="I20">
-        <v>0.3793477806979605</v>
+        <v>0.1204981331366039</v>
       </c>
       <c r="J20">
-        <v>0.2895063892140504</v>
+        <v>0.08369373503331734</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.68238</v>
+        <v>3.881946</v>
       </c>
       <c r="N20">
-        <v>13.36476</v>
+        <v>7.763892</v>
       </c>
       <c r="O20">
-        <v>0.8216882540552003</v>
+        <v>0.6675092708044715</v>
       </c>
       <c r="P20">
-        <v>0.7544266844127117</v>
+        <v>0.5723574910282232</v>
       </c>
       <c r="Q20">
-        <v>78.55332815496</v>
+        <v>10.123796848428</v>
       </c>
       <c r="R20">
-        <v>314.21331261984</v>
+        <v>40.49518739371199</v>
       </c>
       <c r="S20">
-        <v>0.3117056156014222</v>
+        <v>0.08043362098331459</v>
       </c>
       <c r="T20">
-        <v>0.2184113453310521</v>
+        <v>0.04790273619845042</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>11.755292</v>
+        <v>2.607918</v>
       </c>
       <c r="H21">
-        <v>23.510584</v>
+        <v>5.215835999999999</v>
       </c>
       <c r="I21">
-        <v>0.3793477806979605</v>
+        <v>0.1204981331366039</v>
       </c>
       <c r="J21">
-        <v>0.2895063892140504</v>
+        <v>0.08369373503331734</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.6100073333333333</v>
+        <v>0.9074473333333333</v>
       </c>
       <c r="N21">
-        <v>1.830022</v>
+        <v>2.722342</v>
       </c>
       <c r="O21">
-        <v>0.07500858387094646</v>
+        <v>0.1560375924257564</v>
       </c>
       <c r="P21">
-        <v>0.1033028224870719</v>
+        <v>0.2006922348792017</v>
       </c>
       <c r="Q21">
-        <v>7.170814325474666</v>
+        <v>2.366548234651999</v>
       </c>
       <c r="R21">
-        <v>43.024885952848</v>
+        <v>14.199289407912</v>
       </c>
       <c r="S21">
-        <v>0.02845433982474038</v>
+        <v>0.01880223858643393</v>
       </c>
       <c r="T21">
-        <v>0.0299068271338522</v>
+        <v>0.0167966827292242</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,46 +1780,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.291073</v>
+        <v>5.325505333333333</v>
       </c>
       <c r="H22">
-        <v>18.873219</v>
+        <v>15.976516</v>
       </c>
       <c r="I22">
-        <v>0.2030153381778063</v>
+        <v>0.2460635076239721</v>
       </c>
       <c r="J22">
-        <v>0.2324024569332694</v>
+        <v>0.2563604946281968</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.1640393333333333</v>
+        <v>0.07487166666666667</v>
       </c>
       <c r="N22">
-        <v>0.492118</v>
+        <v>0.224615</v>
       </c>
       <c r="O22">
-        <v>0.02017083634918183</v>
+        <v>0.01287435003490057</v>
       </c>
       <c r="P22">
-        <v>0.02777954494355415</v>
+        <v>0.01655871537719798</v>
       </c>
       <c r="Q22">
-        <v>1.031983420871333</v>
+        <v>0.3987294601488889</v>
       </c>
       <c r="R22">
-        <v>9.287850787842</v>
+        <v>3.58856514134</v>
       </c>
       <c r="S22">
-        <v>0.004094989162758337</v>
+        <v>0.003167907727966442</v>
       </c>
       <c r="T22">
-        <v>0.006456034497370165</v>
+        <v>0.004245000464506001</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.291073</v>
+        <v>5.325505333333333</v>
       </c>
       <c r="H23">
-        <v>18.873219</v>
+        <v>15.976516</v>
       </c>
       <c r="I23">
-        <v>0.2030153381778063</v>
+        <v>0.2460635076239721</v>
       </c>
       <c r="J23">
-        <v>0.2324024569332694</v>
+        <v>0.2563604946281968</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1866,22 +1866,22 @@
         <v>0.45377</v>
       </c>
       <c r="O23">
-        <v>0.01859903602422231</v>
+        <v>0.02600892111095355</v>
       </c>
       <c r="P23">
-        <v>0.02561484056473563</v>
+        <v>0.03345212152666174</v>
       </c>
       <c r="Q23">
-        <v>0.9515667317366665</v>
+        <v>0.8055181850355556</v>
       </c>
       <c r="R23">
-        <v>8.564100585629999</v>
+        <v>7.24966366532</v>
       </c>
       <c r="S23">
-        <v>0.003775889588238695</v>
+        <v>0.006399846358076408</v>
       </c>
       <c r="T23">
-        <v>0.005952951881198532</v>
+        <v>0.008575802420937551</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.291073</v>
+        <v>5.325505333333333</v>
       </c>
       <c r="H24">
-        <v>18.873219</v>
+        <v>15.976516</v>
       </c>
       <c r="I24">
-        <v>0.2030153381778063</v>
+        <v>0.2460635076239721</v>
       </c>
       <c r="J24">
-        <v>0.2324024569332694</v>
+        <v>0.2563604946281968</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.524817</v>
+        <v>0.8000470000000001</v>
       </c>
       <c r="N24">
-        <v>1.574451</v>
+        <v>2.400141</v>
       </c>
       <c r="O24">
-        <v>0.06453328970044923</v>
+        <v>0.1375698656239178</v>
       </c>
       <c r="P24">
-        <v>0.0888761075919267</v>
+        <v>0.1769394371887155</v>
       </c>
       <c r="Q24">
-        <v>3.301662058641</v>
+        <v>4.260654565417333</v>
       </c>
       <c r="R24">
-        <v>29.714958527769</v>
+        <v>38.34589108875601</v>
       </c>
       <c r="S24">
-        <v>0.01310124763226305</v>
+        <v>0.03385092367877971</v>
       </c>
       <c r="T24">
-        <v>0.02065502576702936</v>
+        <v>0.04536028163693385</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.291073</v>
+        <v>5.325505333333333</v>
       </c>
       <c r="H25">
-        <v>18.873219</v>
+        <v>15.976516</v>
       </c>
       <c r="I25">
-        <v>0.2030153381778063</v>
+        <v>0.2460635076239721</v>
       </c>
       <c r="J25">
-        <v>0.2324024569332694</v>
+        <v>0.2563604946281968</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.68238</v>
+        <v>3.881946</v>
       </c>
       <c r="N25">
-        <v>13.36476</v>
+        <v>7.763892</v>
       </c>
       <c r="O25">
-        <v>0.8216882540552003</v>
+        <v>0.6675092708044715</v>
       </c>
       <c r="P25">
-        <v>0.7544266844127117</v>
+        <v>0.5723574910282232</v>
       </c>
       <c r="Q25">
-        <v>42.03934039374</v>
+        <v>20.673324126712</v>
       </c>
       <c r="R25">
-        <v>252.23604236244</v>
+        <v>124.039944760272</v>
       </c>
       <c r="S25">
-        <v>0.1668153187737477</v>
+        <v>0.1642496725456681</v>
       </c>
       <c r="T25">
-        <v>0.1753306150335344</v>
+        <v>0.146729849504149</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.291073</v>
+        <v>5.325505333333333</v>
       </c>
       <c r="H26">
-        <v>18.873219</v>
+        <v>15.976516</v>
       </c>
       <c r="I26">
-        <v>0.2030153381778063</v>
+        <v>0.2460635076239721</v>
       </c>
       <c r="J26">
-        <v>0.2324024569332694</v>
+        <v>0.2563604946281968</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.6100073333333333</v>
+        <v>0.9074473333333333</v>
       </c>
       <c r="N26">
-        <v>1.830022</v>
+        <v>2.722342</v>
       </c>
       <c r="O26">
-        <v>0.07500858387094646</v>
+        <v>0.1560375924257564</v>
       </c>
       <c r="P26">
-        <v>0.1033028224870719</v>
+        <v>0.2006922348792017</v>
       </c>
       <c r="Q26">
-        <v>3.837600664535334</v>
+        <v>4.832615613385777</v>
       </c>
       <c r="R26">
-        <v>34.538405980818</v>
+        <v>43.493540520472</v>
       </c>
       <c r="S26">
-        <v>0.01522789302079854</v>
+        <v>0.03839515731348137</v>
       </c>
       <c r="T26">
-        <v>0.0240078297541369</v>
+        <v>0.05144956060167039</v>
       </c>
     </row>
   </sheetData>
